--- a/medicine/Œil et vue/Glaucome_pigmentaire/Glaucome_pigmentaire.xlsx
+++ b/medicine/Œil et vue/Glaucome_pigmentaire/Glaucome_pigmentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glaucome pigmentaire est un type particulier de neuropathie dégénérative progressive avec altération du nerf optique et du champ visuel.
 </t>
@@ -511,7 +523,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il y a deux stades évolutifs :
 la dispersion pigmentaire : maladie héréditaire à transmission autosomale dominante à pénétrance variable. Elle touche 2 % des sujets caucasiens, surtout les myopes. Le tiers des dispersions pigmentaires entraîne un glaucome pigmentaire.
@@ -543,7 +557,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’origine est le frottement de l’épithélium pigmentaire de l’iris sur la zonule lors :
 du clignement
@@ -581,7 +597,9 @@
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>le faisceau de Krukenberg : est des dépôts de pigment sur la cornée. Sa largeur est de 2-3 mm de large sur 6 mm de hauteur. Il peut disparaître avec le temps.
 l’iris : est concave. Il présente des défects radiaires périphériques transilluminables. On peut aussi observer des dépôts « poivre » sur l’iris, correspondant à du pigment. Ce signe peut disparaître.
@@ -615,11 +633,48 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dépend du moment dans l’évolution de la maladie.
-Traitement au stade de la dispersion pigmentaire
-Il faut faire une iridotomie périphérique qui diminuera la concavité de l’iris. Cela réduira le gradient de pression antéropostérieur. Ce geste n’a pas d’effet sur l’hypertonie oculaire, il n’a d’effet que sur la dispersion pigmentaire. Ses indications sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glaucome_pigmentaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucome_pigmentaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitement au stade de la dispersion pigmentaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il faut faire une iridotomie périphérique qui diminuera la concavité de l’iris. Cela réduira le gradient de pression antéropostérieur. Ce geste n’a pas d’effet sur l’hypertonie oculaire, il n’a d’effet que sur la dispersion pigmentaire. Ses indications sont :
 sujet jeune
 syndrome de dispersion pigmentaire
 iris concave
@@ -629,9 +684,43 @@
 la fermeture de l’iridotomie irienne (complication la plus fréquente)
 la synéchie irienne postérieure (accolement de l’iris au cristallin)
 une hémorragie irienne (exceptionnellement grave)
-une hypertonie oculaire
-Traitement de l’hypertonie oculaire
-C’est la trabécularétraction irienne à l’Argon. Elle entraîne une rétraction des mailles trabéculaires, qui facilite l’écoulement de l’humeur aqueuse et une activation cellulaire, qui facilite la phagocytose du pigment. Elle est très efficace dans cette indication, sans danger, même sur un glaucome évolué. Le taux d’échec est de 5 à 10 %. Dans cette indication, il faut commencer à des puissances basses (400 mW).
+une hypertonie oculaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glaucome_pigmentaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucome_pigmentaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement de l’hypertonie oculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est la trabécularétraction irienne à l’Argon. Elle entraîne une rétraction des mailles trabéculaires, qui facilite l’écoulement de l’humeur aqueuse et une activation cellulaire, qui facilite la phagocytose du pigment. Elle est très efficace dans cette indication, sans danger, même sur un glaucome évolué. Le taux d’échec est de 5 à 10 %. Dans cette indication, il faut commencer à des puissances basses (400 mW).
 Sinon, le traitement est classique : d’abord médicamenteux (par collyres anti-glaucomateux), puis par chirurgie, si cela ne suffit pas (aggravation de la neuropathie avec un traitement médicamenteux maximum).
  Portail de la médecine   Portail de l’œil et de la vue                    </t>
         </is>
